--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Run</t>
   </si>
@@ -59,6 +59,9 @@
     <t>https://www.galaxyweblinks.com/engagement-models</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Desktop</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
     <t>Tablet_768_Theradome.png</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Mobile_figma.png</t>
   </si>
   <si>
@@ -141,6 +141,48 @@
   </si>
   <si>
     <t>34-81</t>
+  </si>
+  <si>
+    <t>AboutUs_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://pscistg.wpenginepowered.com/about-us/</t>
+  </si>
+  <si>
+    <t>figd_h9rA6cchE65t73ZUyx8TGsuKL0eE2ZPMOmLwEEEL</t>
+  </si>
+  <si>
+    <t>XK1jlIqGUbp604o6W4OFdR</t>
+  </si>
+  <si>
+    <t>5719-5833</t>
+  </si>
+  <si>
+    <t>Home_Page_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://pscistg.wpenginepowered.com</t>
+  </si>
+  <si>
+    <t>4507-9805</t>
+  </si>
+  <si>
+    <t>Gov_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://pscistg.wpenginepowered.com/government-contracting/</t>
+  </si>
+  <si>
+    <t>13024-3058</t>
+  </si>
+  <si>
+    <t>WhyPage_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://procurementsciences.com/why-procurement-sciences/</t>
+  </si>
+  <si>
+    <t>8399-22339</t>
   </si>
 </sst>
 </file>
@@ -153,7 +195,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +216,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -631,134 +681,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
@@ -767,6 +817,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1097,7 +1151,7 @@
     <col min="1" max="1" width="4.42857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7142857142857" style="1" customWidth="1"/>
     <col min="7" max="16384" width="22.5714285714286" style="1"/>
@@ -1137,32 +1191,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:7">
+    <row r="3" s="1" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1170,10 +1227,10 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1181,10 +1238,10 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1192,68 +1249,65 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
+    <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1271,6 +1325,89 @@
       </c>
       <c r="G10" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:7">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1279,6 +1416,10 @@
     <hyperlink ref="D8" r:id="rId2" display="https://theradome.com"/>
     <hyperlink ref="D9" r:id="rId2" display="https://theradome.com"/>
     <hyperlink ref="D10" r:id="rId3" display="https://1849.bio/"/>
+    <hyperlink ref="D11" r:id="rId4" display="https://pscistg.wpenginepowered.com/about-us/"/>
+    <hyperlink ref="D12" r:id="rId5" display="https://pscistg.wpenginepowered.com" tooltip="https://pscistg.wpenginepowered.com"/>
+    <hyperlink ref="D13" r:id="rId6" display="https://pscistg.wpenginepowered.com/government-contracting/"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://procurementsciences.com/why-procurement-sciences/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Run</t>
   </si>
@@ -59,121 +59,121 @@
     <t>https://www.galaxyweblinks.com/engagement-models</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>1440_figma.png</t>
+  </si>
+  <si>
+    <t>figd_pwLTJa9wxaN60H9mA1msaPhNl5_sQnYvLeic2dt0</t>
+  </si>
+  <si>
+    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
+  </si>
+  <si>
+    <t>1394-35397</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>figma_ipad.png</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>figma_laptop.png</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>figma_iphone.png</t>
+  </si>
+  <si>
+    <t>1440_homepage.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/</t>
+  </si>
+  <si>
+    <t>figd_yglNEKatWu6YH-1-G-DVupXKdKiUxVaaFDyeK6Dd</t>
+  </si>
+  <si>
+    <t>1394-30892</t>
+  </si>
+  <si>
+    <t>Desktop_1440_Theradome.png</t>
+  </si>
+  <si>
+    <t>https://theradome.com</t>
+  </si>
+  <si>
+    <t>figd_EkI6Fj-YG3vPrRHyXT3L0hx6tyUOB8ypCLaHWIIm</t>
+  </si>
+  <si>
+    <t>hritOi8jFNn2Zvf6ilrZwB</t>
+  </si>
+  <si>
+    <t>2127-25780</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Tablet_768_Theradome.png</t>
+  </si>
+  <si>
+    <t>Mobile_figma.png</t>
+  </si>
+  <si>
+    <t>https://1849.bio/</t>
+  </si>
+  <si>
+    <t>figd_AwdsSln-g3ZzwDYlEkXGkHYmUyt7tPekOt53n2KR</t>
+  </si>
+  <si>
+    <t>KMNiQEnuEEwnVRVG9JA8UA</t>
+  </si>
+  <si>
+    <t>34-81</t>
+  </si>
+  <si>
+    <t>AboutUs_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://pscistg.wpenginepowered.com/about-us/</t>
+  </si>
+  <si>
+    <t>figd_h9rA6cchE65t73ZUyx8TGsuKL0eE2ZPMOmLwEEEL</t>
+  </si>
+  <si>
+    <t>XK1jlIqGUbp604o6W4OFdR</t>
+  </si>
+  <si>
+    <t>5719-5833</t>
+  </si>
+  <si>
+    <t>Home_Page_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://pscistg.wpenginepowered.com</t>
+  </si>
+  <si>
+    <t>4507-9805</t>
+  </si>
+  <si>
+    <t>Gov_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://pscistg.wpenginepowered.com/government-contracting/</t>
+  </si>
+  <si>
+    <t>13024-3058</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>1440_figma.png</t>
-  </si>
-  <si>
-    <t>figd_pwLTJa9wxaN60H9mA1msaPhNl5_sQnYvLeic2dt0</t>
-  </si>
-  <si>
-    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
-  </si>
-  <si>
-    <t>1394-35397</t>
-  </si>
-  <si>
-    <t>iPad</t>
-  </si>
-  <si>
-    <t>figma_ipad.png</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>figma_laptop.png</t>
-  </si>
-  <si>
-    <t>iPhone</t>
-  </si>
-  <si>
-    <t>figma_iphone.png</t>
-  </si>
-  <si>
-    <t>1440_homepage.png</t>
-  </si>
-  <si>
-    <t>https://www.galaxyweblinks.com/</t>
-  </si>
-  <si>
-    <t>figd_yglNEKatWu6YH-1-G-DVupXKdKiUxVaaFDyeK6Dd</t>
-  </si>
-  <si>
-    <t>1394-30892</t>
-  </si>
-  <si>
-    <t>Desktop_1440_Theradome.png</t>
-  </si>
-  <si>
-    <t>https://theradome.com</t>
-  </si>
-  <si>
-    <t>figd_EkI6Fj-YG3vPrRHyXT3L0hx6tyUOB8ypCLaHWIIm</t>
-  </si>
-  <si>
-    <t>hritOi8jFNn2Zvf6ilrZwB</t>
-  </si>
-  <si>
-    <t>2127-25780</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Tablet_768_Theradome.png</t>
-  </si>
-  <si>
-    <t>Mobile_figma.png</t>
-  </si>
-  <si>
-    <t>https://1849.bio/</t>
-  </si>
-  <si>
-    <t>figd_AwdsSln-g3ZzwDYlEkXGkHYmUyt7tPekOt53n2KR</t>
-  </si>
-  <si>
-    <t>KMNiQEnuEEwnVRVG9JA8UA</t>
-  </si>
-  <si>
-    <t>34-81</t>
-  </si>
-  <si>
-    <t>AboutUs_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://pscistg.wpenginepowered.com/about-us/</t>
-  </si>
-  <si>
-    <t>figd_h9rA6cchE65t73ZUyx8TGsuKL0eE2ZPMOmLwEEEL</t>
-  </si>
-  <si>
-    <t>XK1jlIqGUbp604o6W4OFdR</t>
-  </si>
-  <si>
-    <t>5719-5833</t>
-  </si>
-  <si>
-    <t>Home_Page_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://pscistg.wpenginepowered.com</t>
-  </si>
-  <si>
-    <t>4507-9805</t>
-  </si>
-  <si>
-    <t>Gov_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://pscistg.wpenginepowered.com/government-contracting/</t>
-  </si>
-  <si>
-    <t>13024-3058</t>
   </si>
   <si>
     <t>WhyPage_Desktop.png</t>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1191,35 +1191,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:4">
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1227,10 +1224,10 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:4">
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1238,10 +1235,10 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="2:4">
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1249,62 +1246,62 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -1312,87 +1309,87 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>49</v>
@@ -1401,10 +1398,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>51</v>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>Run</t>
   </si>
@@ -104,6 +104,12 @@
     <t>1394-30892</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>figd_-pWhWvLSWWbeLtbPid_cyTpaA9Vna65LfmgSRZBw</t>
+  </si>
+  <si>
     <t>Desktop_1440_Theradome.png</t>
   </si>
   <si>
@@ -171,9 +177,6 @@
   </si>
   <si>
     <t>13024-3058</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>WhyPage_Desktop.png</t>
@@ -195,7 +198,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,12 +213,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.25"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -681,146 +678,148 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1187,7 +1186,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1198,10 +1197,10 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1211,38 +1210,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:4">
+    <row r="4" s="1" customFormat="1" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:4">
+    <row r="5" s="1" customFormat="1" spans="2:5">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:4">
+    <row r="6" s="1" customFormat="1" spans="2:5">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
@@ -1254,7 +1256,7 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1264,104 +1266,107 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="2:7">
-      <c r="B8" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" customFormat="1" spans="2:7">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" customFormat="1" spans="2:7">
-      <c r="B11" t="s">
+    <row r="12" customFormat="1" spans="2:7">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" t="s">
+      <c r="E12" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -1369,54 +1374,72 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
+    <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7" t="s">
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models"/>
-    <hyperlink ref="D8" r:id="rId2" display="https://theradome.com"/>
     <hyperlink ref="D9" r:id="rId2" display="https://theradome.com"/>
-    <hyperlink ref="D10" r:id="rId3" display="https://1849.bio/"/>
-    <hyperlink ref="D11" r:id="rId4" display="https://pscistg.wpenginepowered.com/about-us/"/>
-    <hyperlink ref="D12" r:id="rId5" display="https://pscistg.wpenginepowered.com" tooltip="https://pscistg.wpenginepowered.com"/>
-    <hyperlink ref="D13" r:id="rId6" display="https://pscistg.wpenginepowered.com/government-contracting/"/>
-    <hyperlink ref="D14" r:id="rId7" display="https://procurementsciences.com/why-procurement-sciences/"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://theradome.com"/>
+    <hyperlink ref="D11" r:id="rId3" display="https://1849.bio/"/>
+    <hyperlink ref="D12" r:id="rId4" display="https://pscistg.wpenginepowered.com/about-us/"/>
+    <hyperlink ref="D13" r:id="rId5" display="https://pscistg.wpenginepowered.com" tooltip="https://pscistg.wpenginepowered.com"/>
+    <hyperlink ref="D14" r:id="rId6" display="https://pscistg.wpenginepowered.com/government-contracting/"/>
+    <hyperlink ref="D15" r:id="rId7" display="https://procurementsciences.com/why-procurement-sciences/"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Run</t>
   </si>
@@ -50,22 +50,19 @@
     <t>Figma Node Id</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>345_figma.png</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>1440_figma.png</t>
   </si>
   <si>
     <t>https://www.galaxyweblinks.com/engagement-models</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>1440_figma.png</t>
-  </si>
-  <si>
-    <t>figd_pwLTJa9wxaN60H9mA1msaPhNl5_sQnYvLeic2dt0</t>
+    <t>figd_9S3aEB1EhL4_yfpJKQiF1_F6RQN-XazN55CNhcOD</t>
   </si>
   <si>
     <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
@@ -74,115 +71,16 @@
     <t>1394-35397</t>
   </si>
   <si>
-    <t>iPad</t>
-  </si>
-  <si>
-    <t>figma_ipad.png</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>figma_laptop.png</t>
-  </si>
-  <si>
-    <t>iPhone</t>
-  </si>
-  <si>
-    <t>figma_iphone.png</t>
-  </si>
-  <si>
-    <t>1440_homepage.png</t>
-  </si>
-  <si>
-    <t>https://www.galaxyweblinks.com/</t>
-  </si>
-  <si>
-    <t>figd_yglNEKatWu6YH-1-G-DVupXKdKiUxVaaFDyeK6Dd</t>
-  </si>
-  <si>
-    <t>1394-30892</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>figd_-pWhWvLSWWbeLtbPid_cyTpaA9Vna65LfmgSRZBw</t>
-  </si>
-  <si>
-    <t>Desktop_1440_Theradome.png</t>
-  </si>
-  <si>
-    <t>https://theradome.com</t>
-  </si>
-  <si>
-    <t>figd_EkI6Fj-YG3vPrRHyXT3L0hx6tyUOB8ypCLaHWIIm</t>
-  </si>
-  <si>
-    <t>hritOi8jFNn2Zvf6ilrZwB</t>
-  </si>
-  <si>
-    <t>2127-25780</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Tablet_768_Theradome.png</t>
-  </si>
-  <si>
-    <t>Mobile_figma.png</t>
-  </si>
-  <si>
-    <t>https://1849.bio/</t>
-  </si>
-  <si>
-    <t>figd_AwdsSln-g3ZzwDYlEkXGkHYmUyt7tPekOt53n2KR</t>
-  </si>
-  <si>
-    <t>KMNiQEnuEEwnVRVG9JA8UA</t>
-  </si>
-  <si>
-    <t>34-81</t>
-  </si>
-  <si>
-    <t>AboutUs_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://pscistg.wpenginepowered.com/about-us/</t>
+    <t>WhyPage_Desktop.png</t>
+  </si>
+  <si>
+    <t>https://procurementsciences.com/why-procurement-sciences/</t>
   </si>
   <si>
     <t>figd_h9rA6cchE65t73ZUyx8TGsuKL0eE2ZPMOmLwEEEL</t>
   </si>
   <si>
     <t>XK1jlIqGUbp604o6W4OFdR</t>
-  </si>
-  <si>
-    <t>5719-5833</t>
-  </si>
-  <si>
-    <t>Home_Page_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://pscistg.wpenginepowered.com</t>
-  </si>
-  <si>
-    <t>4507-9805</t>
-  </si>
-  <si>
-    <t>Gov_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://pscistg.wpenginepowered.com/government-contracting/</t>
-  </si>
-  <si>
-    <t>13024-3058</t>
-  </si>
-  <si>
-    <t>WhyPage_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://procurementsciences.com/why-procurement-sciences/</t>
   </si>
   <si>
     <t>8399-22339</t>
@@ -805,18 +703,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1139,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.42857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" style="1" customWidth="1"/>
@@ -1179,267 +1071,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:4">
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:7">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:5">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:5">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="2:7">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:7">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="2:7">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models"/>
-    <hyperlink ref="D9" r:id="rId2" display="https://theradome.com"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://theradome.com"/>
-    <hyperlink ref="D11" r:id="rId3" display="https://1849.bio/"/>
-    <hyperlink ref="D12" r:id="rId4" display="https://pscistg.wpenginepowered.com/about-us/"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://pscistg.wpenginepowered.com" tooltip="https://pscistg.wpenginepowered.com"/>
-    <hyperlink ref="D14" r:id="rId6" display="https://pscistg.wpenginepowered.com/government-contracting/"/>
-    <hyperlink ref="D15" r:id="rId7" display="https://procurementsciences.com/why-procurement-sciences/"/>
-    <hyperlink ref="D8" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://procurementsciences.com/why-procurement-sciences/"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Run</t>
   </si>
@@ -50,25 +50,25 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>1440_figma.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/engagement-models</t>
+  </si>
+  <si>
+    <t>figd_9S3aEB1EhL4_yfpJKQiF1_F6RQN-XazN55CNhcOD</t>
+  </si>
+  <si>
+    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
+  </si>
+  <si>
+    <t>1394-35397</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>1440_figma.png</t>
-  </si>
-  <si>
-    <t>https://www.galaxyweblinks.com/engagement-models</t>
-  </si>
-  <si>
-    <t>figd_9S3aEB1EhL4_yfpJKQiF1_F6RQN-XazN55CNhcOD</t>
-  </si>
-  <si>
-    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
-  </si>
-  <si>
-    <t>1394-35397</t>
   </si>
   <si>
     <t>WhyPage_Desktop.png</t>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1071,35 +1071,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:7">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Run</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Desktop</t>
   </si>
   <si>
@@ -66,24 +69,6 @@
   </si>
   <si>
     <t>1394-35397</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>WhyPage_Desktop.png</t>
-  </si>
-  <si>
-    <t>https://procurementsciences.com/why-procurement-sciences/</t>
-  </si>
-  <si>
-    <t>figd_h9rA6cchE65t73ZUyx8TGsuKL0eE2ZPMOmLwEEEL</t>
-  </si>
-  <si>
-    <t>XK1jlIqGUbp604o6W4OFdR</t>
-  </si>
-  <si>
-    <t>8399-22339</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1019,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1071,53 +1056,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:7">
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="4:6">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://procurementsciences.com/why-procurement-sciences/"/>
-    <hyperlink ref="D2" r:id="rId2" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -62,7 +62,7 @@
     <t>https://www.galaxyweblinks.com/engagement-models</t>
   </si>
   <si>
-    <t>figd_9S3aEB1EhL4_yfpJKQiF1_F6RQN-XazN55CNhcOD</t>
+    <t>figd_xAPDWGOQuR3IMDtRRxd_63zCzqUYyKR11JaMqoEz</t>
   </si>
   <si>
     <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -561,134 +567,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -697,6 +703,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1026,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1081,7 +1088,7 @@
     </row>
     <row r="3" spans="4:6">
       <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="4"/>
     </row>
   </sheetData>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Run</t>
   </si>
@@ -50,25 +50,40 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>1440_figma.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/engagement-models</t>
+  </si>
+  <si>
+    <t>figd_xAPDWGOQuR3IMDtRRxd_63zCzqUYyKR11JaMqoEz</t>
+  </si>
+  <si>
+    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
+  </si>
+  <si>
+    <t>1394-35397</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>1440_figma.png</t>
-  </si>
-  <si>
-    <t>https://www.galaxyweblinks.com/engagement-models</t>
-  </si>
-  <si>
-    <t>figd_xAPDWGOQuR3IMDtRRxd_63zCzqUYyKR11JaMqoEz</t>
-  </si>
-  <si>
-    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
-  </si>
-  <si>
-    <t>1394-35397</t>
+    <t>MVP Lead Magnet.png</t>
+  </si>
+  <si>
+    <t>https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/</t>
+  </si>
+  <si>
+    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
+  </si>
+  <si>
+    <t>TzmmeeVvV3m8zNlRxaUb2W</t>
+  </si>
+  <si>
+    <t>3201-385</t>
   </si>
 </sst>
 </file>
@@ -81,7 +96,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,20 +111,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.25"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -567,134 +568,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -702,8 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,18 +1022,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.42857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="66" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.8571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.7142857142857" style="1" customWidth="1"/>
     <col min="7" max="16384" width="22.5714285714286" style="1"/>
@@ -1063,37 +1062,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:7">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="4:6">
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Run</t>
   </si>
@@ -71,13 +71,22 @@
     <t>Y</t>
   </si>
   <si>
+    <t>About Us.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/about-us</t>
+  </si>
+  <si>
+    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
+  </si>
+  <si>
+    <t>2635-4944</t>
+  </si>
+  <si>
     <t>MVP Lead Magnet.png</t>
   </si>
   <si>
     <t>https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/</t>
-  </si>
-  <si>
-    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
   </si>
   <si>
     <t>TzmmeeVvV3m8zNlRxaUb2W</t>
@@ -695,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -703,6 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,7 +1035,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1082,54 +1092,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="2:7">
+    <row r="3" s="2" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
     <hyperlink ref="D4" r:id="rId2" display="https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://www.galaxyweblinks.com/about-us"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Run</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Desktop</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
     <t>https://www.galaxyweblinks.com/engagement-models</t>
   </si>
   <si>
-    <t>figd_xAPDWGOQuR3IMDtRRxd_63zCzqUYyKR11JaMqoEz</t>
+    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
   </si>
   <si>
     <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
@@ -68,16 +71,10 @@
     <t>1394-35397</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>About Us.png</t>
   </si>
   <si>
     <t>https://www.galaxyweblinks.com/about-us</t>
-  </si>
-  <si>
-    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
   </si>
   <si>
     <t>2635-4944</t>
@@ -1035,7 +1032,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1072,32 +1069,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="2:7">
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -1106,33 +1103,33 @@
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Run</t>
   </si>
@@ -50,46 +50,55 @@
     <t>Figma Node Id</t>
   </si>
   <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>1440_figma.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/engagement-models</t>
+  </si>
+  <si>
+    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
+  </si>
+  <si>
+    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
+  </si>
+  <si>
+    <t>1394-35397</t>
+  </si>
+  <si>
+    <t>About Us.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/about-us</t>
+  </si>
+  <si>
+    <t>2635-4944</t>
+  </si>
+  <si>
+    <t>MVP Lead Magnet.png</t>
+  </si>
+  <si>
+    <t>https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/</t>
+  </si>
+  <si>
+    <t>TzmmeeVvV3m8zNlRxaUb2W</t>
+  </si>
+  <si>
+    <t>3201-385</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>1440_figma.png</t>
-  </si>
-  <si>
-    <t>https://www.galaxyweblinks.com/engagement-models</t>
-  </si>
-  <si>
-    <t>figd_yARU_h-VKeT4DGvR81dNHfpDhwHH0p5kHM53qY4S</t>
-  </si>
-  <si>
-    <t>c0OeBgm7hKf4Kgqq6lSn8l</t>
-  </si>
-  <si>
-    <t>1394-35397</t>
-  </si>
-  <si>
-    <t>About Us.png</t>
-  </si>
-  <si>
-    <t>https://www.galaxyweblinks.com/about-us</t>
-  </si>
-  <si>
-    <t>2635-4944</t>
-  </si>
-  <si>
-    <t>MVP Lead Magnet.png</t>
-  </si>
-  <si>
-    <t>https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/</t>
-  </si>
-  <si>
-    <t>TzmmeeVvV3m8zNlRxaUb2W</t>
-  </si>
-  <si>
-    <t>3201-385</t>
+    <t>Audit.png</t>
+  </si>
+  <si>
+    <t>https://www.galaxyweblinks.com/services/technology-consultation/audits</t>
+  </si>
+  <si>
+    <t>1394-35864</t>
   </si>
 </sst>
 </file>
@@ -1029,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.42857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28571428571429" style="1" customWidth="1"/>
@@ -1069,67 +1078,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:7">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1137,6 +1166,7 @@
     <hyperlink ref="D2" r:id="rId1" display="https://www.galaxyweblinks.com/engagement-models" tooltip="https://www.galaxyweblinks.com/engagement-models"/>
     <hyperlink ref="D4" r:id="rId2" display="https://galaxy-development.galaxyweblinks.com/go-to-market-strategies-for-startups/"/>
     <hyperlink ref="D3" r:id="rId3" display="https://www.galaxyweblinks.com/about-us"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.galaxyweblinks.com/services/technology-consultation/audits"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/testdata/Resolutions.xlsx
+++ b/testdata/Resolutions.xlsx
@@ -68,6 +68,9 @@
     <t>1394-35397</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>About Us.png</t>
   </si>
   <si>
@@ -87,9 +90,6 @@
   </si>
   <si>
     <t>3201-385</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Audit.png</t>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5714285714286" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1098,15 +1098,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="2:7">
+    <row r="3" s="2" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -1115,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -1123,25 +1126,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
